--- a/data/trans_orig/AIRE_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>27518</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16985</v>
+        <v>15460</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50125</v>
+        <v>46888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1012168167251559</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06247482597353485</v>
+        <v>0.05686549161941055</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1843705272918039</v>
+        <v>0.1724646039560559</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -762,19 +762,19 @@
         <v>33013</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25168</v>
+        <v>23867</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46180</v>
+        <v>43292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1182469202414101</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09014637223108031</v>
+        <v>0.08548782911206175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1654092727507402</v>
+        <v>0.1550644560231501</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -783,19 +783,19 @@
         <v>60531</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46641</v>
+        <v>45083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86935</v>
+        <v>81317</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1098449567550723</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08464021723318135</v>
+        <v>0.08181283758139668</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1577611436628851</v>
+        <v>0.1475665287576586</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>77625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62789</v>
+        <v>63044</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94390</v>
+        <v>93637</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2855248046630572</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2309542680777359</v>
+        <v>0.2318895997869078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3471889348228062</v>
+        <v>0.3444211333476462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -833,19 +833,19 @@
         <v>89250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77651</v>
+        <v>77504</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101363</v>
+        <v>102559</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3196777927014243</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2781336233234984</v>
+        <v>0.2776077459399926</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3630637690937336</v>
+        <v>0.3673478139494161</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>263</v>
@@ -854,19 +854,19 @@
         <v>166875</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>147149</v>
+        <v>145254</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>187243</v>
+        <v>187006</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3028280913373773</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2670317311481195</v>
+        <v>0.2635929634276539</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3397888689869095</v>
+        <v>0.3393594823207157</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>85670</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>69745</v>
+        <v>70072</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101313</v>
+        <v>101257</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3151139955944613</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2565403233574294</v>
+        <v>0.2577418272252264</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3726536400041914</v>
+        <v>0.3724472037560637</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>156</v>
@@ -904,19 +904,19 @@
         <v>83890</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72762</v>
+        <v>72117</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>96513</v>
+        <v>96955</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3004787593027198</v>
+        <v>0.3004787593027197</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2606221760854019</v>
+        <v>0.2583112671605079</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3456919640382305</v>
+        <v>0.3472758809352838</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>255</v>
@@ -925,19 +925,19 @@
         <v>169559</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>150446</v>
+        <v>152112</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>188432</v>
+        <v>191494</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3076991922742384</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2730140382838576</v>
+        <v>0.2760377169557789</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3419474000129216</v>
+        <v>0.3475042609660696</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>38525</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27869</v>
+        <v>27511</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50407</v>
+        <v>50371</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1417059593059954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1025077038901111</v>
+        <v>0.1011937708705897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1854093245464693</v>
+        <v>0.1852756277124284</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -975,19 +975,19 @@
         <v>32492</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23979</v>
+        <v>24979</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41201</v>
+        <v>41419</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1163807207305035</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08588848854191826</v>
+        <v>0.08946947236042049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1475734950841941</v>
+        <v>0.1483566840822557</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -996,19 +996,19 @@
         <v>71017</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56399</v>
+        <v>56446</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85653</v>
+        <v>85510</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1288751679657178</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1023462584556701</v>
+        <v>0.1024325388394485</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1554343629739764</v>
+        <v>0.1551743762310235</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>42531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30900</v>
+        <v>30987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55085</v>
+        <v>57065</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1564384237113302</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.113656102208387</v>
+        <v>0.1139764814048673</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2026171280147417</v>
+        <v>0.2099001889172735</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -1046,19 +1046,19 @@
         <v>40542</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31005</v>
+        <v>31215</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50462</v>
+        <v>50887</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1452158070239423</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1110559459913083</v>
+        <v>0.1118071109372254</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1807477929881981</v>
+        <v>0.1822674885681334</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>110</v>
@@ -1067,19 +1067,19 @@
         <v>83073</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>69077</v>
+        <v>67493</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>100135</v>
+        <v>98560</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1507525916675941</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1253546429324542</v>
+        <v>0.1224792796204973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1817156055277855</v>
+        <v>0.1788557528852723</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>27247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15736</v>
+        <v>15295</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46336</v>
+        <v>45615</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07014773024161802</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04051416406090644</v>
+        <v>0.03937720597857187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1192946207496195</v>
+        <v>0.117437184135327</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1192,19 +1192,19 @@
         <v>40035</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30324</v>
+        <v>30258</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53449</v>
+        <v>54744</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09849186501074739</v>
+        <v>0.09849186501074736</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07460090361350304</v>
+        <v>0.07443961356890262</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1314927502261466</v>
+        <v>0.1346778703391194</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -1213,19 +1213,19 @@
         <v>67282</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51577</v>
+        <v>51302</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90700</v>
+        <v>88823</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08464187431037146</v>
+        <v>0.08464187431037144</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06488428291700769</v>
+        <v>0.0645389214576548</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1141026169699591</v>
+        <v>0.1117404974469287</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>93503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74487</v>
+        <v>76824</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113273</v>
+        <v>111890</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2407294389366465</v>
+        <v>0.2407294389366466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1917710844902035</v>
+        <v>0.1977867592809007</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2916275002575816</v>
+        <v>0.2880662637108106</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>178</v>
@@ -1263,19 +1263,19 @@
         <v>119531</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103601</v>
+        <v>102448</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>136198</v>
+        <v>135653</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2940619329082568</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2548721040874361</v>
+        <v>0.2520345421454998</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.335065715698326</v>
+        <v>0.3337242606664211</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>265</v>
@@ -1284,19 +1284,19 @@
         <v>213035</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>189171</v>
+        <v>189789</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>242000</v>
+        <v>239409</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2680017073430315</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2379802632360838</v>
+        <v>0.2387585121770894</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3044410928446641</v>
+        <v>0.3011818257428912</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>167643</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>145943</v>
+        <v>144841</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>187688</v>
+        <v>188593</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4316069002567974</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3757376748951841</v>
+        <v>0.3729003324572889</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4832123658882559</v>
+        <v>0.4855424040616539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>192</v>
@@ -1334,19 +1334,19 @@
         <v>130527</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>113911</v>
+        <v>113816</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>146246</v>
+        <v>146927</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3211129687393126</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2802361375729518</v>
+        <v>0.2800019366074078</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3597850027581138</v>
+        <v>0.3614588879479085</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>358</v>
@@ -1355,19 +1355,19 @@
         <v>298170</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>274333</v>
+        <v>268573</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>328137</v>
+        <v>325102</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.375104383062952</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3451168217621969</v>
+        <v>0.337869982295739</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4128029407528106</v>
+        <v>0.4089846623769525</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>69462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55175</v>
+        <v>55560</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86164</v>
+        <v>86349</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1788340713960529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1420521486529445</v>
+        <v>0.1430410512143784</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2218326014946022</v>
+        <v>0.2223091827631309</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -1405,19 +1405,19 @@
         <v>76321</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63237</v>
+        <v>62295</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90569</v>
+        <v>90820</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1877592574459237</v>
+        <v>0.1877592574459236</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1555724734950593</v>
+        <v>0.1532543540698261</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2228120643935012</v>
+        <v>0.2234291110006357</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>168</v>
@@ -1426,19 +1426,19 @@
         <v>145783</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124378</v>
+        <v>126676</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168307</v>
+        <v>168273</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1833980820282684</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1564695726781519</v>
+        <v>0.1593609044728211</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2117335130121394</v>
+        <v>0.2116902849124786</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>30561</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21384</v>
+        <v>21483</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43626</v>
+        <v>44331</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07868185916888518</v>
+        <v>0.07868185916888519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0550549230549363</v>
+        <v>0.05530938550036271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1123165675822021</v>
+        <v>0.1141322402018188</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>56</v>
@@ -1476,19 +1476,19 @@
         <v>40069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31053</v>
+        <v>30494</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51002</v>
+        <v>50927</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09857397589575961</v>
+        <v>0.09857397589575959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07639539476251074</v>
+        <v>0.07501863032955798</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1254705209537552</v>
+        <v>0.125287532791406</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>88</v>
@@ -1497,19 +1497,19 @@
         <v>70630</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>56831</v>
+        <v>56538</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>85094</v>
+        <v>88046</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08885395325537665</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07149487874134287</v>
+        <v>0.07112579947350951</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1070504169787403</v>
+        <v>0.1107639785779373</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>30188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19291</v>
+        <v>19457</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44941</v>
+        <v>45885</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1132991398083652</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07240094600998821</v>
+        <v>0.07302568274088141</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1686666366092623</v>
+        <v>0.1722093725612042</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1622,19 +1622,19 @@
         <v>23092</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15432</v>
+        <v>15893</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32293</v>
+        <v>32703</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08981100410623842</v>
+        <v>0.08981100410623841</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06001789265257841</v>
+        <v>0.06181092224057057</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1255956274274047</v>
+        <v>0.1271919638788876</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -1643,19 +1643,19 @@
         <v>53280</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40226</v>
+        <v>38026</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69546</v>
+        <v>70341</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1017643697727637</v>
+        <v>0.1017643697727636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07683173912902012</v>
+        <v>0.0726284865554561</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1328330091395528</v>
+        <v>0.1343512470353617</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>77050</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60167</v>
+        <v>59927</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95854</v>
+        <v>95685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2891739546486467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2258126140048161</v>
+        <v>0.2249096906526052</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3597503909264452</v>
+        <v>0.3591147091694875</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -1693,19 +1693,19 @@
         <v>98042</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84175</v>
+        <v>84535</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113485</v>
+        <v>113349</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3813153468111989</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.327381493814446</v>
+        <v>0.3287832935363044</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4413759484832785</v>
+        <v>0.4408485594177179</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>186</v>
@@ -1714,19 +1714,19 @@
         <v>175092</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>151858</v>
+        <v>154066</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>199366</v>
+        <v>199168</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3344235982488828</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.290046629742119</v>
+        <v>0.2942652278706714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3807870325343127</v>
+        <v>0.3804095353755807</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>113387</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>96698</v>
+        <v>97643</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>130302</v>
+        <v>133429</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4255503143150438</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3629151543946281</v>
+        <v>0.366464015352499</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4890358335370368</v>
+        <v>0.5007699148291879</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>119</v>
@@ -1764,19 +1764,19 @@
         <v>85718</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>73999</v>
+        <v>71743</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>101236</v>
+        <v>98652</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3333820109536929</v>
+        <v>0.3333820109536928</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2878051194781731</v>
+        <v>0.2790282199181383</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3937351884623974</v>
+        <v>0.3836877938970071</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>222</v>
@@ -1785,19 +1785,19 @@
         <v>199104</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>176866</v>
+        <v>177881</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>220835</v>
+        <v>223864</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3802874549154159</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3378130858256547</v>
+        <v>0.3397508324022013</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4217920051821092</v>
+        <v>0.4275775137244214</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>29945</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20196</v>
+        <v>20266</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43360</v>
+        <v>41803</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1123861717734369</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07579557925064995</v>
+        <v>0.07605939120919898</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1627355444333877</v>
+        <v>0.1568908037077363</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1835,19 +1835,19 @@
         <v>32233</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23718</v>
+        <v>23073</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42131</v>
+        <v>42144</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1253643545385018</v>
+        <v>0.1253643545385017</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09224678776948399</v>
+        <v>0.08973808425991155</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1638608639524579</v>
+        <v>0.1639089983715361</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -1856,19 +1856,19 @@
         <v>62178</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47718</v>
+        <v>49037</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76641</v>
+        <v>79020</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1187596173109418</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09114063666774261</v>
+        <v>0.09365934275660803</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1463842598656193</v>
+        <v>0.150926865977005</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>15878</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9796</v>
+        <v>9303</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24748</v>
+        <v>24550</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05959041945450733</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03676474198657986</v>
+        <v>0.0349159856812709</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09288246314409096</v>
+        <v>0.09213853121949317</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -1906,19 +1906,19 @@
         <v>18031</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12312</v>
+        <v>12366</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26164</v>
+        <v>26648</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07012728359036803</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04788514804172035</v>
+        <v>0.04809615578160645</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1017588114036288</v>
+        <v>0.103641153488256</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>45</v>
@@ -1927,19 +1927,19 @@
         <v>33909</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25103</v>
+        <v>24430</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45324</v>
+        <v>44807</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06476495975199573</v>
+        <v>0.06476495975199571</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0479465345222992</v>
+        <v>0.04666177844184418</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08656803937350303</v>
+        <v>0.08558119118394242</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>28769</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17638</v>
+        <v>17624</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46127</v>
+        <v>47027</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07270620284277428</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04457543021865946</v>
+        <v>0.04453859050730857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1165729383707151</v>
+        <v>0.1188464595701106</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2052,19 +2052,19 @@
         <v>22316</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15389</v>
+        <v>14876</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34145</v>
+        <v>33778</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04771384062929709</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0329043762766873</v>
+        <v>0.0318077463366585</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0730069612270997</v>
+        <v>0.07222103347144936</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -2073,19 +2073,19 @@
         <v>51085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36531</v>
+        <v>37326</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70887</v>
+        <v>71132</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05916787100325975</v>
+        <v>0.05916787100325976</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04231129732294504</v>
+        <v>0.04323185437868659</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0821025176337104</v>
+        <v>0.08238638077232693</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>89731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>73343</v>
+        <v>74766</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109005</v>
+        <v>108322</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2267692158124026</v>
+        <v>0.2267692158124025</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.185352887000328</v>
+        <v>0.1889487468897289</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2754783743974394</v>
+        <v>0.2737518118861264</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>190</v>
@@ -2123,19 +2123,19 @@
         <v>131892</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>114583</v>
+        <v>114694</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>149533</v>
+        <v>150306</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2820022807858935</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2449926647393249</v>
+        <v>0.245230910115079</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3197215965367566</v>
+        <v>0.3213727403633118</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>281</v>
@@ -2144,19 +2144,19 @@
         <v>221623</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>197755</v>
+        <v>197919</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>246526</v>
+        <v>247662</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2566888991035383</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2290438062159412</v>
+        <v>0.2292347149400172</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2855323106349322</v>
+        <v>0.2868473755392753</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>138549</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>120425</v>
+        <v>118324</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>156826</v>
+        <v>156580</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3501425332675183</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3043383318917521</v>
+        <v>0.2990279488787781</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3963317196113479</v>
+        <v>0.3957096274851853</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>230</v>
@@ -2194,19 +2194,19 @@
         <v>155222</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>137243</v>
+        <v>138791</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>172075</v>
+        <v>174368</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3318851413389047</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2934435604144894</v>
+        <v>0.2967538733752938</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3679190340606393</v>
+        <v>0.3728207708499252</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>380</v>
@@ -2215,19 +2215,19 @@
         <v>293771</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>270476</v>
+        <v>267509</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>321802</v>
+        <v>320446</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3402525265389683</v>
+        <v>0.3402525265389684</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3132716825069542</v>
+        <v>0.3098345947582556</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3727181621832745</v>
+        <v>0.371147499723014</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>73205</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58891</v>
+        <v>57163</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91300</v>
+        <v>90604</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1850052571163197</v>
+        <v>0.1850052571163196</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1488308289554711</v>
+        <v>0.1444623634605181</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2307348126508026</v>
+        <v>0.2289752694291162</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>88</v>
@@ -2265,19 +2265,19 @@
         <v>64750</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50911</v>
+        <v>52526</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77857</v>
+        <v>77431</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1384428446391521</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1088550494687374</v>
+        <v>0.1123067747878225</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.166468777382676</v>
+        <v>0.1655568334386116</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>157</v>
@@ -2286,19 +2286,19 @@
         <v>137955</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>119368</v>
+        <v>118180</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161826</v>
+        <v>160577</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1597824556068123</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1382550419234265</v>
+        <v>0.1368791498022102</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.187430299384578</v>
+        <v>0.1859839891865908</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>65439</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52395</v>
+        <v>51735</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>82237</v>
+        <v>81714</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1653767909609854</v>
+        <v>0.1653767909609853</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1324127979964647</v>
+        <v>0.1307437234805724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2078299083523784</v>
+        <v>0.2065081966246234</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>133</v>
@@ -2336,19 +2336,19 @@
         <v>93519</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78284</v>
+        <v>78972</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>110330</v>
+        <v>109466</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1999558926067526</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1673807935346018</v>
+        <v>0.1688521019098577</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2358999410533873</v>
+        <v>0.2340531009306402</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>206</v>
@@ -2357,19 +2357,19 @@
         <v>158958</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>137648</v>
+        <v>137421</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>181919</v>
+        <v>182368</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1841082477474212</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1594267272912931</v>
+        <v>0.1591638476619961</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.21070261061546</v>
+        <v>0.2112224859558404</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>113722</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>88239</v>
+        <v>87849</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>145089</v>
+        <v>146501</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.08599483553874843</v>
+        <v>0.0859948355387484</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06672511454166316</v>
+        <v>0.06643022076465159</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1097138450327889</v>
+        <v>0.1107818693549685</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>160</v>
@@ -2482,19 +2482,19 @@
         <v>118456</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>100542</v>
+        <v>99891</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>137718</v>
+        <v>140353</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08398234794503258</v>
+        <v>0.08398234794503261</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07128189907181448</v>
+        <v>0.07082051439296129</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09763871445563099</v>
+        <v>0.09950712259308679</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>241</v>
@@ -2503,19 +2503,19 @@
         <v>232178</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>201496</v>
+        <v>200576</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>269592</v>
+        <v>268353</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08495616935672727</v>
+        <v>0.08495616935672728</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07372939742601163</v>
+        <v>0.07339280261662828</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09864664228824217</v>
+        <v>0.09819319763406899</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>337909</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>303206</v>
+        <v>305190</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>371438</v>
+        <v>372854</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2555222161159054</v>
+        <v>0.2555222161159053</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2292800321267862</v>
+        <v>0.2307800236011301</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2808758633010008</v>
+        <v>0.2819467504721977</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>667</v>
@@ -2553,19 +2553,19 @@
         <v>438715</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>407273</v>
+        <v>406708</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>471900</v>
+        <v>470522</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.311038790150341</v>
+        <v>0.3110387901503411</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2887471445859485</v>
+        <v>0.288346467127684</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3345662585257794</v>
+        <v>0.3335888302627816</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>995</v>
@@ -2574,19 +2574,19 @@
         <v>776625</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>728042</v>
+        <v>728151</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>823664</v>
+        <v>821730</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2841749085207183</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.266398135750764</v>
+        <v>0.2664379476547523</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3013870889250644</v>
+        <v>0.3006795196472988</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>505249</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>468443</v>
+        <v>468319</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>543701</v>
+        <v>540843</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.382062025044991</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3542295039198213</v>
+        <v>0.3541361288888035</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4111390946060196</v>
+        <v>0.4089778255601518</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>697</v>
@@ -2624,19 +2624,19 @@
         <v>455357</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>425444</v>
+        <v>425798</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>485806</v>
+        <v>487827</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3228371238036382</v>
+        <v>0.3228371238036383</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3016300568708594</v>
+        <v>0.3018805471256123</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3444248342635006</v>
+        <v>0.3458579649163782</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1215</v>
@@ -2645,19 +2645,19 @@
         <v>960606</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>912300</v>
+        <v>914210</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1005411</v>
+        <v>1008921</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.351495425655747</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3338198557644458</v>
+        <v>0.3345188900151287</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3678901045291856</v>
+        <v>0.3691745240997392</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>211138</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>185670</v>
+        <v>181375</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>243726</v>
+        <v>238668</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1596595515412975</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1404010871634447</v>
+        <v>0.1371534218139548</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1843021861952847</v>
+        <v>0.1804774678194681</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>284</v>
@@ -2695,19 +2695,19 @@
         <v>205796</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>184349</v>
+        <v>182289</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>228639</v>
+        <v>229252</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1459041871963002</v>
+        <v>0.1459041871963003</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1306990183947853</v>
+        <v>0.1292388834668111</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.162099872344812</v>
+        <v>0.1625345077819594</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>492</v>
@@ -2716,19 +2716,19 @@
         <v>416934</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>381904</v>
+        <v>379518</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>453169</v>
+        <v>450303</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1525602621786494</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1397425660681136</v>
+        <v>0.1388695920530291</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1658192285440548</v>
+        <v>0.1647703171554258</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>154408</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>132621</v>
+        <v>132684</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>179558</v>
+        <v>177579</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1167613717590577</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1002861129791766</v>
+        <v>0.1003333592373289</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.135779166982707</v>
+        <v>0.1342827405273376</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>278</v>
@@ -2766,19 +2766,19 @@
         <v>192161</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>169465</v>
+        <v>169369</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>217287</v>
+        <v>216619</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1362375509046878</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.120146627581006</v>
+        <v>0.1200783483440474</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1540514099784644</v>
+        <v>0.1535779053453516</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>449</v>
@@ -2787,19 +2787,19 @@
         <v>346569</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>317515</v>
+        <v>314087</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>383586</v>
+        <v>379546</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.126813234288158</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1161820565443665</v>
+        <v>0.1149276338588053</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1403579287251759</v>
+        <v>0.1388798158811335</v>
       </c>
     </row>
     <row r="33">
